--- a/nbc/Maaliw, Renato III R (Faculty-Reclass Justification Form).xlsx
+++ b/nbc/Maaliw, Renato III R (Faculty-Reclass Justification Form).xlsx
@@ -129,12 +129,6 @@
     <t>1.  For every scholarly research paper/ educational or technical article and other outputs published in book, and refereed and internationally-indexed monograph, conference proceeding, technical/scientific/ professional journal</t>
   </si>
   <si>
-    <t xml:space="preserve">  1.1  Sole Author of a Book</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1.2  Co-author of a Book</t>
-  </si>
-  <si>
     <t xml:space="preserve">  1.3  Sole Author of a Journal Article</t>
   </si>
   <si>
@@ -1132,9 +1126,6 @@
     </r>
   </si>
   <si>
-    <t>If all justification (FOI query response from CHED, CHED email response, JC Orientation excerpt video) and presented evidence fails regarding Scopus-Indexed conference papers, can Conference Papers indexed in Scopus be considered as "other peer-reviewed scholarly output" (1.9)"?</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://drive.google.com/file/d/1wtrljhGYE_Lb84ySIjm_R2rfYHvFQFLx/view?usp=sharing
 </t>
   </si>
@@ -1183,6 +1174,15 @@
   </si>
   <si>
     <t>SPECIFY IF EXISTING OR FIRST TIME PROFESSOR: FIRST TIME PROFESSOR</t>
+  </si>
+  <si>
+    <t>If all justification (FOI query response from CHED, CHED email response, JC Orientation excerpt video) and presented evidence fails regarding Scopus-Indexed conference papers, can Conference Papers indexed in Scopus be considered as "other peer-reviewed scholarly output" (1.9)" as this is also a product of painstaking academic and research work?</t>
+  </si>
+  <si>
+    <t>1.1  Sole Author of a Book</t>
+  </si>
+  <si>
+    <t>1.2  Co-author of a Book</t>
   </si>
 </sst>
 </file>
@@ -1789,79 +1789,79 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2171,7 +2171,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2181,35 +2181,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="63.44140625" style="26" customWidth="1"/>
-    <col min="3" max="3" width="36.21875" style="26" customWidth="1"/>
-    <col min="4" max="4" width="26.33203125" style="26" customWidth="1"/>
+    <col min="3" max="3" width="51.88671875" style="26" customWidth="1"/>
+    <col min="4" max="4" width="53" style="26" customWidth="1"/>
     <col min="5" max="5" width="15.109375" style="1" customWidth="1"/>
     <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="12" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="69" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+    </row>
+    <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="69" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-    </row>
-    <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
-        <v>163</v>
-      </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
     </row>
     <row r="3" spans="1:5" ht="12" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -2219,7 +2219,7 @@
     </row>
     <row r="4" spans="1:5" ht="12" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
@@ -2227,7 +2227,7 @@
     </row>
     <row r="5" spans="1:5" ht="12" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B5" s="25"/>
       <c r="C5" s="25"/>
@@ -2235,7 +2235,7 @@
     </row>
     <row r="6" spans="1:5" ht="12" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
@@ -2248,16 +2248,16 @@
       <c r="D7" s="25"/>
     </row>
     <row r="8" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="58" t="s">
-        <v>165</v>
-      </c>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
+      <c r="A8" s="70" t="s">
+        <v>163</v>
+      </c>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
     </row>
     <row r="9" spans="1:5" ht="12" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
@@ -2274,16 +2274,16 @@
         <v>0</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="12.6" thickBot="1" x14ac:dyDescent="0.25">
@@ -2292,13 +2292,13 @@
       </c>
       <c r="B12" s="29"/>
       <c r="C12" s="29" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D12" s="29"/>
     </row>
     <row r="13" spans="1:5" ht="12.6" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
@@ -2330,7 +2330,7 @@
     </row>
     <row r="17" spans="1:4" ht="12.6" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B17" s="35"/>
       <c r="C17" s="35"/>
@@ -2338,7 +2338,7 @@
     </row>
     <row r="18" spans="1:4" ht="12.6" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B18" s="29"/>
       <c r="C18" s="35"/>
@@ -2410,7 +2410,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
@@ -2434,7 +2434,7 @@
     </row>
     <row r="30" spans="1:4" ht="24.6" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B30" s="29"/>
       <c r="C30" s="35"/>
@@ -2442,7 +2442,7 @@
     </row>
     <row r="31" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B31" s="31"/>
       <c r="C31" s="31"/>
@@ -2466,7 +2466,7 @@
     </row>
     <row r="34" spans="1:4" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B34" s="29"/>
       <c r="C34" s="29"/>
@@ -2474,7 +2474,7 @@
     </row>
     <row r="35" spans="1:4" ht="12.6" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B35" s="29"/>
       <c r="C35" s="29"/>
@@ -2482,7 +2482,7 @@
     </row>
     <row r="36" spans="1:4" ht="12.6" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B36" s="29"/>
       <c r="C36" s="35"/>
@@ -2497,258 +2497,258 @@
       <c r="D37" s="32"/>
     </row>
     <row r="38" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="71" t="s">
+      <c r="A38" s="81" t="s">
+        <v>203</v>
+      </c>
+      <c r="B38" s="67"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="41"/>
+    </row>
+    <row r="39" spans="1:4" ht="104.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="74" t="s">
+        <v>204</v>
+      </c>
+      <c r="B39" s="76" t="s">
+        <v>186</v>
+      </c>
+      <c r="C39" s="65" t="s">
+        <v>197</v>
+      </c>
+      <c r="D39" s="63" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="57.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="75"/>
+      <c r="B40" s="77"/>
+      <c r="C40" s="68" t="s">
+        <v>195</v>
+      </c>
+      <c r="D40" s="63" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="117" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="77"/>
-      <c r="C38" s="74"/>
-      <c r="D38" s="41"/>
-    </row>
-    <row r="39" spans="1:4" ht="104.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="72" t="s">
+      <c r="B41" s="66" t="s">
+        <v>164</v>
+      </c>
+      <c r="C41" s="57" t="s">
+        <v>190</v>
+      </c>
+      <c r="D41" s="53" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="53.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="79"/>
+      <c r="B42" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="D42" s="53" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="80"/>
+      <c r="B43" s="51" t="s">
+        <v>189</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="D43" s="53" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="116.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="78" t="s">
-        <v>188</v>
-      </c>
-      <c r="C39" s="75" t="s">
-        <v>200</v>
-      </c>
-      <c r="D39" s="70" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="57.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="73"/>
-      <c r="B40" s="79"/>
-      <c r="C40" s="80" t="s">
-        <v>198</v>
-      </c>
-      <c r="D40" s="70" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="117" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="B41" s="76" t="s">
+      <c r="B44" s="50" t="s">
+        <v>164</v>
+      </c>
+      <c r="C44" s="57" t="s">
+        <v>190</v>
+      </c>
+      <c r="D44" s="53" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="61.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="72"/>
+      <c r="B45" s="52" t="s">
         <v>166</v>
       </c>
-      <c r="C41" s="64" t="s">
-        <v>192</v>
-      </c>
-      <c r="D41" s="53" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="53.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="81"/>
-      <c r="B42" s="51" t="s">
+      <c r="C45" s="58" t="s">
+        <v>178</v>
+      </c>
+      <c r="D45" s="53" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="72"/>
+      <c r="B46" s="52" t="s">
         <v>167</v>
       </c>
-      <c r="C42" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D42" s="53" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="60"/>
-      <c r="B43" s="51" t="s">
-        <v>191</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="D43" s="53" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="116.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="61" t="s">
-        <v>35</v>
-      </c>
-      <c r="B44" s="50" t="s">
-        <v>166</v>
-      </c>
-      <c r="C44" s="64" t="s">
-        <v>192</v>
-      </c>
-      <c r="D44" s="53" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="61.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="62"/>
-      <c r="B45" s="52" t="s">
+      <c r="C46" s="58" t="s">
+        <v>179</v>
+      </c>
+      <c r="D46" s="53" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="73"/>
+      <c r="B47" s="52" t="s">
         <v>168</v>
       </c>
-      <c r="C45" s="65" t="s">
-        <v>180</v>
-      </c>
-      <c r="D45" s="53" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="62"/>
-      <c r="B46" s="52" t="s">
-        <v>169</v>
-      </c>
-      <c r="C46" s="65" t="s">
-        <v>181</v>
-      </c>
-      <c r="D46" s="53" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="63"/>
-      <c r="B47" s="52" t="s">
-        <v>170</v>
-      </c>
-      <c r="C47" s="66" t="s">
-        <v>173</v>
+      <c r="C47" s="59" t="s">
+        <v>171</v>
       </c>
       <c r="D47" s="54" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="41.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="48"/>
       <c r="B48" s="52" t="s">
-        <v>171</v>
-      </c>
-      <c r="C48" s="66" t="s">
-        <v>182</v>
+        <v>169</v>
+      </c>
+      <c r="C48" s="59" t="s">
+        <v>180</v>
       </c>
       <c r="D48" s="54" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="48"/>
       <c r="B49" s="52" t="s">
-        <v>172</v>
-      </c>
-      <c r="C49" s="66" t="s">
-        <v>183</v>
+        <v>170</v>
+      </c>
+      <c r="C49" s="59" t="s">
+        <v>181</v>
       </c>
       <c r="D49" s="53" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B50" s="36"/>
-      <c r="C50" s="67"/>
+      <c r="C50" s="60"/>
       <c r="D50" s="41"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B51" s="36"/>
-      <c r="C51" s="67"/>
+      <c r="C51" s="60"/>
       <c r="D51" s="41"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B52" s="36"/>
-      <c r="C52" s="67"/>
+      <c r="C52" s="60"/>
       <c r="D52" s="41"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B53" s="36"/>
-      <c r="C53" s="67"/>
+      <c r="C53" s="60"/>
       <c r="D53" s="41"/>
     </row>
     <row r="54" spans="1:4" ht="73.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B54" s="49" t="s">
-        <v>196</v>
-      </c>
-      <c r="C54" s="68" t="s">
-        <v>193</v>
+        <v>202</v>
+      </c>
+      <c r="C54" s="61" t="s">
+        <v>191</v>
       </c>
       <c r="D54" s="53" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B55" s="31"/>
-      <c r="C55" s="69"/>
+      <c r="C55" s="62"/>
       <c r="D55" s="31"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B56" s="36"/>
-      <c r="C56" s="67"/>
+      <c r="C56" s="60"/>
       <c r="D56" s="36"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B57" s="36"/>
-      <c r="C57" s="67"/>
+      <c r="C57" s="60"/>
       <c r="D57" s="36"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B58" s="36"/>
-      <c r="C58" s="67"/>
+      <c r="C58" s="60"/>
       <c r="D58" s="36"/>
     </row>
-    <row r="59" spans="1:4" ht="121.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" ht="118.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="C59" s="64" t="s">
-        <v>194</v>
+        <v>172</v>
+      </c>
+      <c r="C59" s="57" t="s">
+        <v>192</v>
       </c>
       <c r="D59" s="53" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="121.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B60" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="C60" s="57" t="s">
+        <v>192</v>
+      </c>
+      <c r="D60" s="53" t="s">
         <v>174</v>
-      </c>
-      <c r="C60" s="64" t="s">
-        <v>194</v>
-      </c>
-      <c r="D60" s="53" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="12.6" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B61" s="29"/>
       <c r="C61" s="35"/>
@@ -2764,7 +2764,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B63" s="36"/>
       <c r="C63" s="36"/>
@@ -2780,7 +2780,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B65" s="36"/>
       <c r="C65" s="36"/>
@@ -2788,7 +2788,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B66" s="36"/>
       <c r="C66" s="36"/>
@@ -2796,7 +2796,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B67" s="36"/>
       <c r="C67" s="36"/>
@@ -2804,7 +2804,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B68" s="36"/>
       <c r="C68" s="36"/>
@@ -2812,7 +2812,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B69" s="36"/>
       <c r="C69" s="36"/>
@@ -2820,7 +2820,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B70" s="36"/>
       <c r="C70" s="36"/>
@@ -2828,7 +2828,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B71" s="36"/>
       <c r="C71" s="36"/>
@@ -2836,7 +2836,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B72" s="36"/>
       <c r="C72" s="36"/>
@@ -2892,7 +2892,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B79" s="36"/>
       <c r="C79" s="36"/>
@@ -2900,7 +2900,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="19" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B80" s="36"/>
       <c r="C80" s="36"/>
@@ -2908,7 +2908,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B81" s="36"/>
       <c r="C81" s="36"/>
@@ -2916,7 +2916,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B82" s="36"/>
       <c r="C82" s="36"/>
@@ -2924,7 +2924,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="19" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B83" s="36"/>
       <c r="C83" s="36"/>
@@ -2948,7 +2948,7 @@
     </row>
     <row r="86" spans="1:4" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B86" s="33"/>
       <c r="C86" s="33"/>
@@ -2956,7 +2956,7 @@
     </row>
     <row r="87" spans="1:4" ht="12.6" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B87" s="29"/>
       <c r="C87" s="35"/>
@@ -2964,7 +2964,7 @@
     </row>
     <row r="88" spans="1:4" ht="22.8" x14ac:dyDescent="0.2">
       <c r="A88" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B88" s="31"/>
       <c r="C88" s="31"/>
@@ -2972,7 +2972,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B89" s="36"/>
       <c r="C89" s="36"/>
@@ -2980,7 +2980,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B90" s="36"/>
       <c r="C90" s="36"/>
@@ -2988,7 +2988,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B91" s="36"/>
       <c r="C91" s="36"/>
@@ -2996,7 +2996,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B92" s="36"/>
       <c r="C92" s="36"/>
@@ -3004,7 +3004,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B93" s="36"/>
       <c r="C93" s="36"/>
@@ -3012,7 +3012,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B94" s="36"/>
       <c r="C94" s="36"/>
@@ -3020,7 +3020,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B95" s="36"/>
       <c r="C95" s="36"/>
@@ -3028,7 +3028,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B96" s="36"/>
       <c r="C96" s="36"/>
@@ -3036,7 +3036,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B97" s="36"/>
       <c r="C97" s="36"/>
@@ -3044,7 +3044,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B98" s="36"/>
       <c r="C98" s="36"/>
@@ -3052,7 +3052,7 @@
     </row>
     <row r="99" spans="1:4" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B99" s="33"/>
       <c r="C99" s="33"/>
@@ -3068,7 +3068,7 @@
     </row>
     <row r="101" spans="1:4" ht="12.6" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B101" s="29"/>
       <c r="C101" s="29"/>
@@ -3076,7 +3076,7 @@
     </row>
     <row r="102" spans="1:4" ht="22.8" x14ac:dyDescent="0.2">
       <c r="A102" s="16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B102" s="42"/>
       <c r="C102" s="42"/>
@@ -3084,7 +3084,7 @@
     </row>
     <row r="103" spans="1:4" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B103" s="43"/>
       <c r="C103" s="43"/>
@@ -3092,7 +3092,7 @@
     </row>
     <row r="104" spans="1:4" ht="12.6" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B104" s="29"/>
       <c r="C104" s="35"/>
@@ -3100,7 +3100,7 @@
     </row>
     <row r="105" spans="1:4" ht="12.6" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B105" s="35"/>
       <c r="C105" s="35"/>
@@ -3108,7 +3108,7 @@
     </row>
     <row r="106" spans="1:4" ht="34.200000000000003" x14ac:dyDescent="0.2">
       <c r="A106" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B106" s="31"/>
       <c r="C106" s="31"/>
@@ -3116,7 +3116,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B107" s="36"/>
       <c r="C107" s="36"/>
@@ -3124,7 +3124,7 @@
     </row>
     <row r="108" spans="1:4" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B108" s="33"/>
       <c r="C108" s="33"/>
@@ -3132,7 +3132,7 @@
     </row>
     <row r="109" spans="1:4" ht="22.8" x14ac:dyDescent="0.2">
       <c r="A109" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B109" s="31"/>
       <c r="C109" s="31"/>
@@ -3140,7 +3140,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B110" s="36"/>
       <c r="C110" s="36"/>
@@ -3148,7 +3148,7 @@
     </row>
     <row r="111" spans="1:4" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B111" s="33"/>
       <c r="C111" s="33"/>
@@ -3156,7 +3156,7 @@
     </row>
     <row r="112" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A112" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B112" s="31"/>
       <c r="C112" s="32"/>
@@ -3164,7 +3164,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B113" s="36"/>
       <c r="C113" s="41"/>
@@ -3172,7 +3172,7 @@
     </row>
     <row r="114" spans="1:4" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B114" s="33"/>
       <c r="C114" s="34"/>
@@ -3180,7 +3180,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B115" s="31"/>
       <c r="C115" s="31"/>
@@ -3188,7 +3188,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="18" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B116" s="36"/>
       <c r="C116" s="36"/>
@@ -3196,7 +3196,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="18" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B117" s="36"/>
       <c r="C117" s="36"/>
@@ -3204,7 +3204,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B118" s="36"/>
       <c r="C118" s="36"/>
@@ -3212,7 +3212,7 @@
     </row>
     <row r="119" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A119" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B119" s="33"/>
       <c r="C119" s="33"/>
@@ -3220,7 +3220,7 @@
     </row>
     <row r="120" spans="1:4" ht="45.6" x14ac:dyDescent="0.2">
       <c r="A120" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B120" s="31"/>
       <c r="C120" s="31"/>
@@ -3228,7 +3228,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B121" s="36"/>
       <c r="C121" s="36"/>
@@ -3236,7 +3236,7 @@
     </row>
     <row r="122" spans="1:4" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A122" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B122" s="33"/>
       <c r="C122" s="33"/>
@@ -3252,7 +3252,7 @@
     </row>
     <row r="124" spans="1:4" ht="22.8" x14ac:dyDescent="0.2">
       <c r="A124" s="11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B124" s="31"/>
       <c r="C124" s="31"/>
@@ -3260,7 +3260,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B125" s="36"/>
       <c r="C125" s="36"/>
@@ -3268,7 +3268,7 @@
     </row>
     <row r="126" spans="1:4" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A126" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B126" s="33"/>
       <c r="C126" s="33"/>
@@ -3276,7 +3276,7 @@
     </row>
     <row r="127" spans="1:4" ht="12.6" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B127" s="44"/>
       <c r="C127" s="45"/>
@@ -3284,7 +3284,7 @@
     </row>
     <row r="128" spans="1:4" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B128" s="29"/>
       <c r="C128" s="29"/>
@@ -3292,7 +3292,7 @@
     </row>
     <row r="129" spans="1:4" ht="12.6" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B129" s="29"/>
       <c r="C129" s="29"/>
@@ -3300,7 +3300,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B130" s="31"/>
       <c r="C130" s="31"/>
@@ -3308,7 +3308,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B131" s="36"/>
       <c r="C131" s="36"/>
@@ -3316,7 +3316,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B132" s="36"/>
       <c r="C132" s="36"/>
@@ -3324,7 +3324,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B133" s="36"/>
       <c r="C133" s="36"/>
@@ -3332,7 +3332,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B134" s="36"/>
       <c r="C134" s="36"/>
@@ -3340,7 +3340,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B135" s="36"/>
       <c r="C135" s="36"/>
@@ -3348,7 +3348,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B136" s="36"/>
       <c r="C136" s="36"/>
@@ -3356,7 +3356,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B137" s="36"/>
       <c r="C137" s="36"/>
@@ -3364,7 +3364,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B138" s="36"/>
       <c r="C138" s="36"/>
@@ -3372,7 +3372,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B139" s="36"/>
       <c r="C139" s="36"/>
@@ -3380,7 +3380,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B140" s="36"/>
       <c r="C140" s="36"/>
@@ -3388,7 +3388,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="18" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B141" s="36"/>
       <c r="C141" s="36"/>
@@ -3396,7 +3396,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B142" s="36"/>
       <c r="C142" s="36"/>
@@ -3404,7 +3404,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B143" s="36"/>
       <c r="C143" s="36"/>
@@ -3412,7 +3412,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B144" s="36"/>
       <c r="C144" s="36"/>
@@ -3420,7 +3420,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B145" s="36"/>
       <c r="C145" s="36"/>
@@ -3428,7 +3428,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="18" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B146" s="36"/>
       <c r="C146" s="36"/>
@@ -3436,7 +3436,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="18" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B147" s="36"/>
       <c r="C147" s="36"/>
@@ -3444,7 +3444,7 @@
     </row>
     <row r="148" spans="1:4" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A148" s="18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B148" s="36"/>
       <c r="C148" s="36"/>
@@ -3460,7 +3460,7 @@
     </row>
     <row r="150" spans="1:4" ht="12.6" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B150" s="46"/>
       <c r="C150" s="47"/>
@@ -3468,21 +3468,21 @@
     </row>
     <row r="151" spans="1:4" ht="91.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A151" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B151" s="55" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C151" s="55" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D151" s="56" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="12.6" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A152" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B152" s="44"/>
       <c r="C152" s="44"/>
@@ -3490,7 +3490,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B153" s="31"/>
       <c r="C153" s="31"/>
@@ -3498,7 +3498,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="23" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B154" s="36"/>
       <c r="C154" s="36"/>
@@ -3506,7 +3506,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="23" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B155" s="36"/>
       <c r="C155" s="36"/>
@@ -3514,7 +3514,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B156" s="36"/>
       <c r="C156" s="36"/>
@@ -3522,7 +3522,7 @@
     </row>
     <row r="157" spans="1:4" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A157" s="24" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B157" s="33"/>
       <c r="C157" s="33"/>
@@ -3530,7 +3530,7 @@
     </row>
     <row r="158" spans="1:4" ht="22.8" x14ac:dyDescent="0.2">
       <c r="A158" s="16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B158" s="31"/>
       <c r="C158" s="31"/>
@@ -3538,7 +3538,7 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B159" s="36"/>
       <c r="C159" s="36"/>
@@ -3546,7 +3546,7 @@
     </row>
     <row r="160" spans="1:4" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A160" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B160" s="33"/>
       <c r="C160" s="33"/>
@@ -3554,7 +3554,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B161" s="31"/>
       <c r="C161" s="31"/>
@@ -3562,7 +3562,7 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B162" s="36"/>
       <c r="C162" s="36"/>
@@ -3570,7 +3570,7 @@
     </row>
     <row r="163" spans="1:4" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A163" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B163" s="33"/>
       <c r="C163" s="33"/>
@@ -3578,7 +3578,7 @@
     </row>
     <row r="164" spans="1:4" ht="12.6" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B164" s="29"/>
       <c r="C164" s="29"/>
@@ -3586,7 +3586,7 @@
     </row>
     <row r="165" spans="1:4" ht="45.6" x14ac:dyDescent="0.2">
       <c r="A165" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B165" s="31"/>
       <c r="C165" s="31"/>
@@ -3594,7 +3594,7 @@
     </row>
     <row r="166" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A166" s="23" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B166" s="36"/>
       <c r="C166" s="36"/>
@@ -3602,7 +3602,7 @@
     </row>
     <row r="167" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A167" s="23" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B167" s="36"/>
       <c r="C167" s="36"/>
@@ -3610,7 +3610,7 @@
     </row>
     <row r="168" spans="1:4" ht="12.6" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A168" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B168" s="33"/>
       <c r="C168" s="33"/>
@@ -3618,7 +3618,7 @@
     </row>
     <row r="169" spans="1:4" ht="12.6" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B169" s="29"/>
       <c r="C169" s="35"/>
@@ -3626,7 +3626,7 @@
     </row>
     <row r="170" spans="1:4" ht="22.8" x14ac:dyDescent="0.2">
       <c r="A170" s="16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B170" s="31"/>
       <c r="C170" s="31"/>
@@ -3634,7 +3634,7 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B171" s="36"/>
       <c r="C171" s="36"/>
@@ -3642,7 +3642,7 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="23" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B172" s="36"/>
       <c r="C172" s="36"/>
@@ -3650,7 +3650,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B173" s="36"/>
       <c r="C173" s="36"/>
@@ -3658,7 +3658,7 @@
     </row>
     <row r="174" spans="1:4" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A174" s="24" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B174" s="33"/>
       <c r="C174" s="33"/>
@@ -3666,7 +3666,7 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B175" s="31"/>
       <c r="C175" s="31"/>
@@ -3674,7 +3674,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B176" s="36"/>
       <c r="C176" s="36"/>
@@ -3682,7 +3682,7 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B177" s="36"/>
       <c r="C177" s="36"/>
@@ -3690,7 +3690,7 @@
     </row>
     <row r="178" spans="1:4" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A178" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B178" s="33"/>
       <c r="C178" s="33"/>

--- a/nbc/Maaliw, Renato III R (Faculty-Reclass Justification Form).xlsx
+++ b/nbc/Maaliw, Renato III R (Faculty-Reclass Justification Form).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="-3120" yWindow="-312" windowWidth="23256" windowHeight="12456"/>
@@ -19,6 +19,7 @@
     <definedName name="_Hlk71049332" localSheetId="0">Sheet1!$A$128</definedName>
     <definedName name="_Hlk71055626" localSheetId="0">Sheet1!$A$151</definedName>
     <definedName name="_Hlk83620185" localSheetId="0">Sheet1!$A$55</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$D$178</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$11:$11</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="206">
   <si>
     <t>CRITERIA</t>
   </si>
@@ -1183,6 +1184,10 @@
   </si>
   <si>
     <t>1.2  Co-author of a Book</t>
+  </si>
+  <si>
+    <t>Justificaiton Links:
+https://drive.google.com/drive/folders/109ytPLXrR1jLMjq6wRyi3jxZxg6WN5-A?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -1621,7 +1626,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1825,6 +1830,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1861,8 +1869,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2181,8 +2189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
@@ -2196,20 +2204,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="12" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="70" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
     </row>
     <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="70" t="s">
         <v>161</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
     </row>
     <row r="3" spans="1:5" ht="12" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -2248,12 +2256,12 @@
       <c r="D7" s="25"/>
     </row>
     <row r="8" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="71" t="s">
         <v>163</v>
       </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
     </row>
     <row r="9" spans="1:5" ht="12" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
@@ -2494,10 +2502,12 @@
       </c>
       <c r="B37" s="37"/>
       <c r="C37" s="31"/>
-      <c r="D37" s="32"/>
+      <c r="D37" s="82" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="38" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="81" t="s">
+      <c r="A38" s="69" t="s">
         <v>203</v>
       </c>
       <c r="B38" s="67"/>
@@ -2505,10 +2515,10 @@
       <c r="D38" s="41"/>
     </row>
     <row r="39" spans="1:4" ht="104.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="74" t="s">
+      <c r="A39" s="75" t="s">
         <v>204</v>
       </c>
-      <c r="B39" s="76" t="s">
+      <c r="B39" s="77" t="s">
         <v>186</v>
       </c>
       <c r="C39" s="65" t="s">
@@ -2519,8 +2529,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="57.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="75"/>
-      <c r="B40" s="77"/>
+      <c r="A40" s="76"/>
+      <c r="B40" s="78"/>
       <c r="C40" s="68" t="s">
         <v>195</v>
       </c>
@@ -2529,7 +2539,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="117" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="78" t="s">
+      <c r="A41" s="79" t="s">
         <v>32</v>
       </c>
       <c r="B41" s="66" t="s">
@@ -2543,7 +2553,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="53.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="79"/>
+      <c r="A42" s="80"/>
       <c r="B42" s="51" t="s">
         <v>165</v>
       </c>
@@ -2555,7 +2565,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="80"/>
+      <c r="A43" s="81"/>
       <c r="B43" s="51" t="s">
         <v>189</v>
       </c>
@@ -2567,7 +2577,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="116.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="71" t="s">
+      <c r="A44" s="72" t="s">
         <v>33</v>
       </c>
       <c r="B44" s="50" t="s">
@@ -2581,7 +2591,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="61.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="72"/>
+      <c r="A45" s="73"/>
       <c r="B45" s="52" t="s">
         <v>166</v>
       </c>
@@ -2593,7 +2603,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="72"/>
+      <c r="A46" s="73"/>
       <c r="B46" s="52" t="s">
         <v>167</v>
       </c>
@@ -2605,7 +2615,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="73"/>
+      <c r="A47" s="74"/>
       <c r="B47" s="52" t="s">
         <v>168</v>
       </c>
@@ -3466,7 +3476,7 @@
       <c r="C150" s="47"/>
       <c r="D150" s="44"/>
     </row>
-    <row r="151" spans="1:4" ht="91.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" ht="81.599999999999994" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A151" s="8" t="s">
         <v>152</v>
       </c>
@@ -3712,23 +3722,23 @@
     <hyperlink ref="D42" r:id="rId3"/>
     <hyperlink ref="D43" r:id="rId4"/>
     <hyperlink ref="D44" r:id="rId5"/>
-    <hyperlink ref="D45" r:id="rId6"/>
-    <hyperlink ref="C45" r:id="rId7"/>
-    <hyperlink ref="C46" r:id="rId8"/>
-    <hyperlink ref="C48" r:id="rId9"/>
-    <hyperlink ref="C49" r:id="rId10"/>
-    <hyperlink ref="D46" r:id="rId11"/>
-    <hyperlink ref="D47" r:id="rId12"/>
-    <hyperlink ref="D48" r:id="rId13"/>
-    <hyperlink ref="D49" r:id="rId14"/>
-    <hyperlink ref="D54" r:id="rId15"/>
-    <hyperlink ref="D59" r:id="rId16"/>
-    <hyperlink ref="D60" r:id="rId17"/>
-    <hyperlink ref="D151" r:id="rId18"/>
-    <hyperlink ref="D40" r:id="rId19"/>
-    <hyperlink ref="D39" r:id="rId20"/>
+    <hyperlink ref="C46" r:id="rId6"/>
+    <hyperlink ref="C48" r:id="rId7"/>
+    <hyperlink ref="C49" r:id="rId8"/>
+    <hyperlink ref="D46" r:id="rId9"/>
+    <hyperlink ref="D47" r:id="rId10"/>
+    <hyperlink ref="D48" r:id="rId11"/>
+    <hyperlink ref="D49" r:id="rId12"/>
+    <hyperlink ref="D54" r:id="rId13"/>
+    <hyperlink ref="D59" r:id="rId14"/>
+    <hyperlink ref="D60" r:id="rId15"/>
+    <hyperlink ref="D151" r:id="rId16"/>
+    <hyperlink ref="D40" r:id="rId17"/>
+    <hyperlink ref="D39" r:id="rId18"/>
+    <hyperlink ref="C45" r:id="rId19"/>
+    <hyperlink ref="D45" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.39370078740157483" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId21"/>
+  <pageSetup paperSize="256" scale="78" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId21"/>
 </worksheet>
 </file>